--- a/Usertests.xlsx
+++ b/Usertests.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29725"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan.pfeifer\Desktop\Bachelor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1B937A-1265-443D-94F3-5097A77AFE08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E469654-7F2B-4FAE-B047-4BD58463C3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21504" yWindow="2088" windowWidth="21600" windowHeight="11232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Entwickler:</t>
   </si>
@@ -94,6 +105,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Silas</t>
+  </si>
+  <si>
+    <t>PV</t>
   </si>
 </sst>
 </file>
@@ -420,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:E23"/>
+  <dimension ref="C1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,6 +480,9 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -550,7 +573,29 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>